--- a/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest-exclusion.xlsx
+++ b/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest-exclusion.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T07:30:40+00:00</t>
+    <t>2025-07-11T07:36:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest-exclusion.xlsx
+++ b/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest-exclusion.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T07:36:43+00:00</t>
+    <t>2025-07-11T07:41:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest-exclusion.xlsx
+++ b/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest-exclusion.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T07:41:04+00:00</t>
+    <t>2025-07-11T08:58:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest-exclusion.xlsx
+++ b/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest-exclusion.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T08:58:20+00:00</t>
+    <t>2025-07-11T09:01:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest-exclusion.xlsx
+++ b/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest-exclusion.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T09:01:56+00:00</t>
+    <t>2025-07-11T11:49:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest-exclusion.xlsx
+++ b/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest-exclusion.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T11:49:25+00:00</t>
+    <t>2025-07-11T11:55:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest-exclusion.xlsx
+++ b/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest-exclusion.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T11:55:35+00:00</t>
+    <t>2025-07-11T12:03:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest-exclusion.xlsx
+++ b/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest-exclusion.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T12:03:33+00:00</t>
+    <t>2025-07-11T12:06:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest-exclusion.xlsx
+++ b/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest-exclusion.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T12:06:27+00:00</t>
+    <t>2025-07-11T12:24:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest-exclusion.xlsx
+++ b/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest-exclusion.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T12:29:53+00:00</t>
+    <t>2025-07-11T12:36:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest-exclusion.xlsx
+++ b/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest-exclusion.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T12:36:09+00:00</t>
+    <t>2025-07-11T12:44:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest-exclusion.xlsx
+++ b/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest-exclusion.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T12:44:15+00:00</t>
+    <t>2025-07-11T12:52:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest-exclusion.xlsx
+++ b/nr-review/ig/StructureDefinition-fr-inpatient-medicationrequest-exclusion.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T12:52:14+00:00</t>
+    <t>2025-07-11T13:00:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
